--- a/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/BEFTA_Master_Definition_GlobalSearch_InvalidComplexOtherCaseReference_ComplexFieldsOrdering_Schema.xlsx
+++ b/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/BEFTA_Master_Definition_GlobalSearch_InvalidComplexOtherCaseReference_ComplexFieldsOrdering_Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kleogeorgiou/Documents/HMCTS-Projects/CCD/ccd-test-definitions/src/main/resources/uk/gov/hmcts/ccd/test_definitions/invalid/GlobalSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3FEC7E-5788-C342-8A6F-743BC253BB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F7698D-0B07-8248-9EBE-0FCD3A809BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="640" windowWidth="33600" windowHeight="20500" firstSheet="18" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="640" windowWidth="33600" windowHeight="20500" firstSheet="18" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9791" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9864" uniqueCount="1270">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3933,9 +3933,6 @@
 Max Length: 200</t>
   </si>
   <si>
-    <t>InvalidPostCode</t>
-  </si>
-  <si>
     <t>SearchCriteria</t>
   </si>
   <si>
@@ -3946,7 +3943,19 @@
 Max Length: 200</t>
   </si>
   <si>
-    <t>Name.InvalidComplex</t>
+    <t>RespondentDetails.InvalidComplex</t>
+  </si>
+  <si>
+    <t>TextFieldFName,TextFieldMName,TextFieldLName</t>
+  </si>
+  <si>
+    <t>AddressComplex1.AddressLine1</t>
+  </si>
+  <si>
+    <t>FamilyDetails.FatherFullName,FamilyDetails.MotherFullName</t>
+  </si>
+  <si>
+    <t>TextField,FamilyDetails.FatherFullName,TextField,FamilyDetails.MotherFullName</t>
   </si>
 </sst>
 </file>
@@ -4720,7 +4729,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="602">
+  <cellXfs count="604">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -6339,6 +6348,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Explanatory Text" xfId="14" builtinId="53"/>
@@ -51318,8 +51329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B2520D-B5D1-6249-96E1-C392AB55B40B}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -51401,154 +51412,327 @@
       <c r="A4" s="556">
         <v>42736</v>
       </c>
-      <c r="B4" s="380"/>
-      <c r="C4" s="597" t="s">
+      <c r="B4" s="346"/>
+      <c r="C4" s="602" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="597" t="s">
+      <c r="D4" s="602" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="597" t="s">
+      <c r="E4" s="602" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="597" t="s">
+      <c r="F4" s="602" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="597" t="s">
-        <v>1262</v>
-      </c>
-      <c r="H4" s="597" t="s">
+      <c r="G4" s="602" t="s">
         <v>12</v>
       </c>
+      <c r="H4" s="602" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="556"/>
-      <c r="B5" s="380"/>
-      <c r="C5" s="597"/>
-      <c r="D5" s="597"/>
-      <c r="E5" s="597"/>
-      <c r="F5" s="597"/>
-      <c r="G5" s="597"/>
-      <c r="H5" s="597"/>
+      <c r="A5" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="346"/>
+      <c r="C5" s="602" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="602" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E5" s="602" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="602" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="602" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="602" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="556"/>
-      <c r="B6" s="380"/>
-      <c r="C6" s="597"/>
-      <c r="D6" s="555"/>
-      <c r="E6" s="597"/>
-      <c r="F6" s="597"/>
-      <c r="G6" s="597"/>
-      <c r="H6" s="597"/>
+      <c r="A6" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="346"/>
+      <c r="C6" s="602" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="602" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E6" s="602" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="602" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="602" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="602" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="556"/>
-      <c r="B7" s="380"/>
-      <c r="C7" s="597"/>
-      <c r="D7" s="380"/>
-      <c r="E7" s="380"/>
-      <c r="F7" s="380"/>
-      <c r="G7" s="380"/>
-      <c r="H7" s="380"/>
+      <c r="A7" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="346"/>
+      <c r="C7" s="602" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="602" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="602" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F7" s="602" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="602" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="602" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="556"/>
-      <c r="B8" s="380"/>
-      <c r="C8" s="597"/>
-      <c r="D8" s="380"/>
-      <c r="E8" s="380"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="380"/>
-      <c r="H8" s="380"/>
+      <c r="A8" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="346"/>
+      <c r="C8" s="602" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="555" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="602" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="602" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G8" s="602" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="602" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="556"/>
-      <c r="B9" s="380"/>
-      <c r="C9" s="597"/>
-      <c r="D9" s="380"/>
-      <c r="E9" s="380"/>
-      <c r="F9" s="380"/>
-      <c r="G9" s="380"/>
-      <c r="H9" s="380"/>
+      <c r="A9" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="346"/>
+      <c r="C9" s="602" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="346" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="G9" s="346" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H9" s="346" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="556"/>
-      <c r="B10" s="380"/>
-      <c r="C10" s="597"/>
-      <c r="D10" s="380"/>
-      <c r="E10" s="380"/>
-      <c r="F10" s="380"/>
-      <c r="G10" s="380"/>
-      <c r="H10" s="380"/>
+      <c r="A10" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="346"/>
+      <c r="C10" s="602" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="346" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="346" t="s">
+        <v>1267</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="599" customFormat="1">
-      <c r="A11" s="600"/>
-      <c r="B11" s="601"/>
-      <c r="C11" s="601"/>
-      <c r="D11" s="380"/>
-      <c r="E11" s="380"/>
-      <c r="F11" s="380"/>
-      <c r="G11" s="380"/>
-      <c r="H11" s="380"/>
+      <c r="A11" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="346"/>
+      <c r="C11" s="602" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="346" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E11" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="346" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="556"/>
-      <c r="B12" s="380"/>
-      <c r="C12" s="597"/>
-      <c r="D12" s="380"/>
-      <c r="E12" s="380"/>
-      <c r="F12" s="380"/>
-      <c r="G12" s="380"/>
-      <c r="H12" s="380"/>
+      <c r="A12" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="346"/>
+      <c r="C12" s="602" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="346" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E12" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="346" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="346" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="556"/>
-      <c r="B13" s="380"/>
-      <c r="C13" s="597"/>
-      <c r="D13" s="380"/>
-      <c r="E13" s="380"/>
-      <c r="F13" s="380"/>
-      <c r="G13" s="380"/>
-      <c r="H13" s="380"/>
+      <c r="A13" s="600">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="603"/>
+      <c r="C13" s="603" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="346"/>
+      <c r="E13" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="346" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="556"/>
-      <c r="B14" s="380"/>
-      <c r="C14" s="597"/>
-      <c r="D14" s="380"/>
-      <c r="E14" s="380"/>
-      <c r="F14" s="380"/>
-      <c r="G14" s="380"/>
-      <c r="H14" s="380"/>
+      <c r="A14" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="346"/>
+      <c r="C14" s="602" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="346"/>
+      <c r="F14" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="346" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="556"/>
-      <c r="C15" s="597"/>
-      <c r="D15" s="380"/>
-      <c r="E15" s="380"/>
-      <c r="F15" s="380"/>
-      <c r="G15" s="380"/>
-      <c r="H15" s="380"/>
+      <c r="A15" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="346"/>
+      <c r="C15" s="602" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="346" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="346"/>
+      <c r="G15" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="H15" s="346" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="380"/>
-      <c r="B16" s="380"/>
-      <c r="C16" s="380"/>
-      <c r="D16" s="380"/>
-      <c r="E16" s="380"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="380"/>
+      <c r="A16" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="346"/>
+      <c r="C16" s="602" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="346" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="346"/>
+      <c r="H16" s="346" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="380"/>
-      <c r="B17" s="380"/>
-      <c r="C17" s="380"/>
-      <c r="D17" s="380"/>
-      <c r="E17" s="380"/>
-      <c r="F17" s="380"/>
-      <c r="G17" s="380"/>
-      <c r="H17" s="380"/>
+      <c r="A17" s="556">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="602" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="346" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="346" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="346"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="380"/>
@@ -51650,8 +51834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B640633F-DB95-2046-85D4-5061F40E453E}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -51664,7 +51848,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="A1" s="596" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B1" s="380"/>
       <c r="C1" s="380"/>
@@ -51681,7 +51865,7 @@
         <v>1255</v>
       </c>
       <c r="D2" s="594" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -51695,7 +51879,7 @@
         <v>1252</v>
       </c>
       <c r="D3" s="598" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -51707,7 +51891,7 @@
         <v>85</v>
       </c>
       <c r="D4" s="597" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="5" spans="1:4">
